--- a/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
+++ b/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB2746-C688-441A-9F1A-A0BE6673A4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
   <si>
     <t>PERIOD</t>
   </si>
@@ -393,12 +394,45 @@
   </si>
   <si>
     <t>9/1-3/2023</t>
+  </si>
+  <si>
+    <t>SL(10-0-0)</t>
+  </si>
+  <si>
+    <t>9/13-22, 25-29/2023</t>
+  </si>
+  <si>
+    <t>10/7-9/2023</t>
+  </si>
+  <si>
+    <t>SL(12-0-0)</t>
+  </si>
+  <si>
+    <t>10/16-20,23-27,30,31/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>11/5,6/2023</t>
+  </si>
+  <si>
+    <t>11/23,24/2023</t>
+  </si>
+  <si>
+    <t>11/16,17/2023</t>
+  </si>
+  <si>
+    <t>SL(11-0-0)</t>
+  </si>
+  <si>
+    <t>12/1,4-8, 11-14/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1321,7 +1355,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1338,25 +1372,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1368,25 +1402,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K119" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K120" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1693,34 +1727,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M128"/>
+  <dimension ref="A2:M129"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85:C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +1775,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1759,7 +1793,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1779,7 +1813,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1787,7 +1821,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1800,7 +1834,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -1817,7 +1851,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1864,7 +1898,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1874,12 +1908,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1935,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1927,7 +1961,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1947,7 +1981,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1967,7 +2001,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1987,7 +2021,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -2007,7 +2041,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -2027,7 +2061,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -2047,7 +2081,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -2067,7 +2101,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -2087,7 +2121,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2107,7 +2141,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2127,7 +2161,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2147,7 +2181,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>46</v>
       </c>
@@ -2165,7 +2199,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2185,7 +2219,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2205,7 +2239,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2231,7 +2265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2251,7 +2285,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2271,7 +2305,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2291,7 +2325,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2311,7 +2345,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2331,7 +2365,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2351,7 +2385,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2371,7 +2405,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2391,7 +2425,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2411,7 +2445,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>48</v>
       </c>
@@ -2429,7 +2463,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2449,7 +2483,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2469,7 +2503,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2489,7 +2523,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2509,7 +2543,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2529,7 +2563,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2549,7 +2583,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2569,7 +2603,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2589,7 +2623,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2609,7 +2643,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2629,7 +2663,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2649,7 +2683,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2673,7 +2707,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>49</v>
       </c>
@@ -2691,7 +2725,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2711,7 +2745,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2731,7 +2765,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2751,7 +2785,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2771,7 +2805,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2791,7 +2825,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2811,7 +2845,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2837,7 +2871,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2857,7 +2891,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2877,7 +2911,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2897,7 +2931,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2917,7 +2951,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2941,7 +2975,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>50</v>
       </c>
@@ -2959,7 +2993,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2979,7 +3013,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2999,7 +3033,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -3019,7 +3053,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -3039,7 +3073,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -3059,7 +3093,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -3079,7 +3113,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -3099,7 +3133,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -3119,7 +3153,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3139,7 +3173,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3159,7 +3193,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3179,7 +3213,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3203,7 +3237,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>57</v>
       </c>
@@ -3221,7 +3255,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3241,7 +3275,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3261,7 +3295,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3281,7 +3315,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -3301,7 +3335,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -3321,7 +3355,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3341,7 +3375,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3361,7 +3395,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3381,60 +3415,70 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>45221</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="41">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="40"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="41">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="40"/>
@@ -3449,8 +3493,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="47" t="s">
+        <v>124</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="40"/>
@@ -3465,8 +3511,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="41">
+        <v>45292</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="40"/>
@@ -3481,8 +3529,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="41">
+        <v>45323</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="40"/>
@@ -3497,8 +3547,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="41">
+        <v>45352</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="40"/>
@@ -3513,8 +3565,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="41">
+        <v>45383</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="40"/>
@@ -3529,8 +3583,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="41">
+        <v>45413</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
@@ -3545,8 +3601,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="41">
+        <v>45444</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="40"/>
@@ -3561,8 +3619,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="41">
+        <v>45474</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
@@ -3577,8 +3637,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="41">
+        <v>45505</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
@@ -3593,8 +3655,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="41">
+        <v>45536</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="40"/>
@@ -3609,8 +3673,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="41">
+        <v>45566</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
@@ -3625,7 +3691,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3641,7 +3707,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3657,7 +3723,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3673,7 +3739,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3689,7 +3755,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3705,7 +3771,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3721,7 +3787,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3737,7 +3803,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3753,7 +3819,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3769,7 +3835,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3785,7 +3851,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3801,7 +3867,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3817,7 +3883,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3833,7 +3899,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3849,7 +3915,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3865,7 +3931,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3881,7 +3947,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3897,7 +3963,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3913,7 +3979,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3929,7 +3995,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3945,7 +4011,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3961,7 +4027,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3977,7 +4043,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3993,7 +4059,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4009,7 +4075,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4025,7 +4091,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4041,7 +4107,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4057,7 +4123,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4073,7 +4139,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4089,21 +4155,37 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="44"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="41"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="40"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="43" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="44"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="40"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="15"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="42"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="44"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4120,10 +4202,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4146,34 +4228,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M119"/>
+  <dimension ref="A2:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="B74" sqref="B74"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4194,7 +4276,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4212,7 +4294,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4232,7 +4314,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4240,7 +4322,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4253,7 +4335,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -4270,7 +4352,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4327,12 +4409,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>116.5</v>
+        <v>71.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -4360,7 +4442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="20" t="s">
         <v>56</v>
@@ -4382,7 +4464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>61</v>
@@ -4404,7 +4486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>63</v>
@@ -4424,7 +4506,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>43221</v>
       </c>
@@ -4448,7 +4530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>66</v>
@@ -4470,7 +4552,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>67</v>
@@ -4492,7 +4574,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>43252</v>
       </c>
@@ -4514,7 +4596,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>43282</v>
       </c>
@@ -4536,7 +4618,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>43313</v>
       </c>
@@ -4560,7 +4642,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>71</v>
@@ -4580,7 +4662,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>43344</v>
       </c>
@@ -4604,7 +4686,7 @@
         <v>43372</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>72</v>
@@ -4624,7 +4706,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>43374</v>
       </c>
@@ -4648,7 +4730,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>73</v>
@@ -4668,7 +4750,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>74</v>
@@ -4688,7 +4770,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>43405</v>
       </c>
@@ -4712,7 +4794,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>43435</v>
       </c>
@@ -4736,7 +4818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -4758,7 +4840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>77</v>
@@ -4780,7 +4862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>67</v>
@@ -4802,7 +4884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>80</v>
@@ -4822,7 +4904,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>46</v>
       </c>
@@ -4840,7 +4922,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>43497</v>
       </c>
@@ -4864,7 +4946,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>43556</v>
       </c>
@@ -4888,7 +4970,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>43617</v>
       </c>
@@ -4912,7 +4994,7 @@
         <v>43639</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>43647</v>
       </c>
@@ -4936,7 +5018,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>43678</v>
       </c>
@@ -4960,7 +5042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>51</v>
@@ -4982,7 +5064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>43709</v>
       </c>
@@ -5006,7 +5088,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>67</v>
@@ -5028,7 +5110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>67</v>
@@ -5050,7 +5132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
@@ -5072,7 +5154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>43739</v>
       </c>
@@ -5094,7 +5176,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -5116,7 +5198,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -5138,7 +5220,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>43770</v>
       </c>
@@ -5162,7 +5244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>48</v>
       </c>
@@ -5180,7 +5262,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>43831</v>
       </c>
@@ -5204,7 +5286,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>93</v>
@@ -5224,7 +5306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>43862</v>
       </c>
@@ -5248,7 +5330,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>43891</v>
       </c>
@@ -5270,7 +5352,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>44013</v>
       </c>
@@ -5294,7 +5376,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>44044</v>
       </c>
@@ -5318,7 +5400,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>49</v>
       </c>
@@ -5336,7 +5418,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>44075</v>
       </c>
@@ -5360,7 +5442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>44136</v>
       </c>
@@ -5384,7 +5466,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>50</v>
       </c>
@@ -5402,7 +5484,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>44562</v>
       </c>
@@ -5424,7 +5506,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>44682</v>
       </c>
@@ -5448,7 +5530,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="47"/>
       <c r="B60" s="20" t="s">
         <v>104</v>
@@ -5468,7 +5550,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44774</v>
       </c>
@@ -5492,7 +5574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>51</v>
@@ -5514,7 +5596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44835</v>
       </c>
@@ -5538,7 +5620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>57</v>
       </c>
@@ -5556,7 +5638,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44927</v>
       </c>
@@ -5580,7 +5662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44958</v>
       </c>
@@ -5604,7 +5686,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44986</v>
       </c>
@@ -5628,7 +5710,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>45047</v>
       </c>
@@ -5652,7 +5734,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20" t="s">
         <v>102</v>
@@ -5674,7 +5756,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>45097</v>
       </c>
@@ -5698,7 +5780,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>45132</v>
       </c>
@@ -5722,7 +5804,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>102</v>
@@ -5744,7 +5826,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>45139</v>
       </c>
@@ -5768,7 +5850,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>45170</v>
       </c>
@@ -5792,7 +5874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>66</v>
@@ -5814,9 +5896,11 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C76" s="13"/>
       <c r="D76" s="40"/>
       <c r="E76" s="9"/>
@@ -5825,14 +5909,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="40"/>
+      <c r="H76" s="40">
+        <v>10</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="40"/>
       <c r="E77" s="9"/>
@@ -5841,14 +5933,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="40"/>
+      <c r="H77" s="40">
+        <v>3</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
@@ -5857,14 +5955,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="40"/>
+      <c r="H78" s="40">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="49">
+        <v>45213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
@@ -5873,14 +5977,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="40"/>
+      <c r="H79" s="40">
+        <v>12</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
@@ -5889,14 +6001,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="40"/>
+      <c r="H80" s="40">
+        <v>2</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="41">
+        <v>45242</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
@@ -5905,14 +6025,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="40"/>
+      <c r="H81" s="40">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="20"/>
+      <c r="K81" s="49">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="47">
+        <v>45242</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
@@ -5921,14 +6049,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="40"/>
+      <c r="H82" s="40">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="49">
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
@@ -5937,14 +6071,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="40"/>
+      <c r="H83" s="40">
+        <v>2</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
@@ -5953,14 +6093,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="40"/>
+      <c r="H84" s="40">
+        <v>2</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
@@ -5969,12 +6115,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="40"/>
+      <c r="H85" s="40">
+        <v>11</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5990,7 +6140,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6006,7 +6156,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6022,7 +6172,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6038,7 +6188,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6054,7 +6204,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6070,7 +6220,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6086,7 +6236,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6102,7 +6252,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6118,7 +6268,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6134,7 +6284,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6150,7 +6300,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6166,7 +6316,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6182,7 +6332,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6198,7 +6348,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6214,7 +6364,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6230,7 +6380,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6246,7 +6396,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6262,7 +6412,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6278,7 +6428,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6294,7 +6444,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6310,7 +6460,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6326,7 +6476,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6342,7 +6492,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6358,7 +6508,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6374,7 +6524,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6390,7 +6540,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6406,7 +6556,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6422,7 +6572,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6438,7 +6588,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -6454,7 +6604,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6470,7 +6620,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6486,7 +6636,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6502,21 +6652,37 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="44"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="41"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="40"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="44"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="40"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="15"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="42"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="44"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6533,10 +6699,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6559,28 +6725,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6593,7 +6759,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6622,7 +6788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>66.358000000000004</v>
       </c>
@@ -6650,7 +6816,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.75</v>
@@ -6665,10 +6831,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -6688,7 +6854,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -6714,7 +6880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -6740,7 +6906,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -6766,7 +6932,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -6792,7 +6958,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -6818,7 +6984,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -6844,7 +7010,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -6870,7 +7036,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -6896,7 +7062,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -6916,7 +7082,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -6936,7 +7102,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -6956,7 +7122,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -6977,7 +7143,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -6998,7 +7164,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -7019,7 +7185,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -7040,7 +7206,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -7061,7 +7227,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -7082,7 +7248,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -7103,7 +7269,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -7124,7 +7290,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -7145,7 +7311,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -7166,7 +7332,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -7187,7 +7353,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -7208,7 +7374,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -7229,7 +7395,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -7250,7 +7416,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -7271,7 +7437,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -7292,7 +7458,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -7313,7 +7479,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -7334,7 +7500,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -7355,7 +7521,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -7376,7 +7542,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -7385,7 +7551,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -7394,7 +7560,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -7403,7 +7569,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -7412,7 +7578,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -7421,7 +7587,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -7430,7 +7596,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -7439,7 +7605,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -7448,7 +7614,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -7457,7 +7623,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -7466,7 +7632,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -7475,7 +7641,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -7484,7 +7650,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -7493,7 +7659,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -7502,7 +7668,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -7511,7 +7677,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -7520,7 +7686,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -7529,7 +7695,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -7538,7 +7704,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -7547,7 +7713,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -7556,7 +7722,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -7565,7 +7731,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -7574,7 +7740,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -7583,7 +7749,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -7592,7 +7758,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -7601,7 +7767,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -7610,7 +7776,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -7619,7 +7785,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -7628,7 +7794,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -7637,7 +7803,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
